--- a/요구사항.xlsx
+++ b/요구사항.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>요구사항 설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,143 +38,162 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>사용자 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 구성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관심글 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   Main&gt;my diary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main&gt;todolist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main&gt;favorite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스(메뉴)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>My page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이트 컨셉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스 타겟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 게시글이 로그인 유저의 글이면 글수정 가능.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 동일한 이름의 아이디 , 이미 한번 회원가입한 유저는 회원가입 불가 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   1) 로그인 유저의 게시글 작성 , 수정 , 삭제 가능.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   2) 다이어리를 작성하면 그 날 작성 데이터가 달력 해당날짜에 표시 된다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         &gt; 접속한 유저 자신만 사용 가능.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    1) 해당 날짜 투두리스트를 모두 완료하면 그 날 작성 데이터가 달력 해당날짜에 표시 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    2) 달력에 표시 된 부분 클릭 시 , 해당 데이터가 있는 다이어리 or 투두리스트 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  좋아요 기능을 통해 favorite 한 유저들의 글들만 볼 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        &gt; 좋아요는 한 게시글에 한번 , 다시 눌렀을 때 좋아요 해체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  게시글에 댓글과 좋아요를 누를 수있다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    1) My page 클릭 시 정보수정 메뉴바 드롭다운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    2) 로그인유저의 프로필사진, 간단한 자기소개 , 비밀번호 수정 가능.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  유저명을 검색하면 해당 유저의 작성한 공개다이어리를 볼 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  최근에 인기 많은 instagram 의 게시글 부분을 레퍼런스하여 사용자들에게 다소 익숙하고 보기 편하게 만든 사이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  다이어리와 투두리스트를 자주 사용할 일이 있는 학생,젊은청년층과 직장인들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  카카오톡 로그인 api를 이용한 회원가입 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  아이디, 비밀번호, 사용자이름, 나이를 입력한다 . </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 로그인시 다이어리기능과 투두리스트 작성을 할 수 있다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        &gt; 다이어리는 공개 , 비공개 지정가능.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  비로그인 시에도 메인화면에 사용자들의 최신작성글 순서대로 볼 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        &gt; 인기글 클릭시 좋아요 수 많은 순서대로 변경.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main Menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>로그인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>로그인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사용자 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디와 비밀번호를 입력 하여, 로그인을 한다.   - 정상 상태인 경우, 사용자는 정보수정을 할수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화면 구성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시판</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비로그인 시에도 메인화면에 사용자들의 최신작성글 순서대로 볼 수 있다.  - 인기글 클릭시 좋아요 수 많은 순서대로 변경.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저명을 검색하면 해당 유저의 작성한 공개다이어리를 볼 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>좋아요 기능을 통해 favorite 한 유저들의 글들만 볼 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관심글 보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Main Menu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   Main&gt;my diary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Main&gt;todolist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Main&gt;favorite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 로그인시 다이어리기능과 투두리스트 작성을 할 수 있다. - 다이어리는 공개 , 비공개 지정가능.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2) 다이어리를 작성하면 그 날 작성 데이터가 달력 해당날짜에 표시 된다. - 접속한 유저 자신만 사용 가능. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1) 로그인 유저의 게시글 작성 , 수정 , 삭제 가능.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서비스(메뉴)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1) 해당 날짜 투두리스트를 모두 완료하면 그 날 작성 데이터가 달력 해당날짜에 표시 된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2) 달력에 표시 된 부분 클릭 시 , 해당 데이터가 있는 다이어리 or 투두리스트 페이지로 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>My page</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원정보 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1) My page 클릭 시 정보수정 메뉴바 드롭다운</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2) 로그인유저의 프로필사진, 간단한 자기소개 , 비밀번호 수정 가능.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사이트 컨셉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서비스 타겟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최근에 인기 많은 instagram 의 게시글 부분을 레퍼런스하여 사용자들에게 다소 익숙하고 보기 편하게 만든 사이트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다이어리와 투두리스트를 자주 사용할 일이 있는 학생,젊은청년층과 직장인들</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시글에 댓글과 좋아요를 누를 수있다.  - 단 좋아요는 한 게시글에 한번 , 다시 눌렀을 때 좋아요 해체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 게시글이 로그인 유저의 글이면 글수정 가능.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">아이디, 비밀번호, 사용자이름, 나이를 입력한다 . </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 동일한 이름의 아이디 , 이미 한번 회원가입한 유저는 회원가입 불가 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카카오톡 로그인 api를 이용한 회원가입 가능</t>
+    <t xml:space="preserve">  아이디와 비밀번호를 입력 하여, 로그인을 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        &gt; 정상 상태인 경우, 사용자는 정보수정을 할수 있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -238,7 +257,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -246,9 +265,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -259,6 +275,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -540,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:F33"/>
+  <dimension ref="C3:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -554,288 +576,277 @@
     <col min="6" max="6" width="117.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C2" s="2" t="s">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="3"/>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5" t="s">
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C22" s="4"/>
+      <c r="D22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C25" s="4"/>
+      <c r="D25" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="E25" s="3"/>
+      <c r="F25" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C12" s="1"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5" t="s">
+      <c r="D26" s="1"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C13" s="1"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C14" s="1"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C15" s="1"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C16" s="1"/>
-      <c r="D16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C17" s="1"/>
-      <c r="D17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C18" s="1"/>
-      <c r="D18" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C19" s="1"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="1" t="s">
+      <c r="D27" s="1"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="1"/>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="4"/>
+      <c r="E29" s="3"/>
       <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="1"/>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
     </row>
     <row r="33" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
+  <mergeCells count="14">
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E10:E16"/>
+    <mergeCell ref="D10:D16"/>
+    <mergeCell ref="C10:C25"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E20:E21"/>
     <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E17:E19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
